--- a/codingtest/test.xlsx
+++ b/codingtest/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skynet\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{844057D8-808E-4930-9EB8-93696FC2CA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3F8F8C-E449-4FA8-B9B8-959FA3156B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{492C470F-58DA-43AE-A45D-900141A4AC3F}"/>
   </bookViews>
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -191,6 +191,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -717,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E46E54B-BEC4-4B98-A36C-74DAADFEDAD3}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,6 +730,7 @@
     <col min="4" max="4" width="16.36328125" customWidth="1"/>
     <col min="5" max="5" width="8.08984375" customWidth="1"/>
     <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -756,7 +758,7 @@
       <c r="C2" s="3">
         <v>1200</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>45292</v>
       </c>
     </row>
@@ -770,7 +772,7 @@
       <c r="C3" s="3">
         <v>1500</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>45293</v>
       </c>
     </row>
@@ -784,7 +786,7 @@
       <c r="C4" s="3">
         <v>800</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>45294</v>
       </c>
     </row>
@@ -798,7 +800,7 @@
       <c r="C5" s="3">
         <v>700</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>45295</v>
       </c>
     </row>
@@ -812,7 +814,7 @@
       <c r="C6" s="3">
         <v>1100</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>45296</v>
       </c>
     </row>
@@ -826,7 +828,7 @@
       <c r="C7" s="3">
         <v>1400</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>45297</v>
       </c>
     </row>
@@ -840,7 +842,7 @@
       <c r="C8" s="3">
         <v>900</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>45298</v>
       </c>
     </row>
@@ -854,7 +856,7 @@
       <c r="C9" s="3">
         <v>850</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>45299</v>
       </c>
     </row>
@@ -868,7 +870,7 @@
       <c r="C10" s="3">
         <v>1300</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>45300</v>
       </c>
     </row>
@@ -882,19 +884,19 @@
       <c r="C11" s="3">
         <v>1600</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>45301</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="L13" s="5" t="s">
+      <c r="F13" s="6"/>
+      <c r="L13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -919,15 +921,15 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -936,21 +938,21 @@
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>3600</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -964,16 +966,16 @@
         <f>VLOOKUP(F19,A1:D11,3,)</f>
         <v>1200</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <f>VLOOKUP(F19,A1:D11,4,)</f>
         <v>45292</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>3600</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -987,16 +989,16 @@
         <f t="shared" ref="H20:H28" si="1">VLOOKUP(F20,A2:D12,3,)</f>
         <v>1500</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <f t="shared" ref="I20:I28" si="2">VLOOKUP(F20,A2:D12,4,)</f>
         <v>45293</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>4500</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1010,16 +1012,16 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <f t="shared" si="2"/>
         <v>45294</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>4500</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1033,16 +1035,16 @@
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <f t="shared" si="2"/>
         <v>45295</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>1700</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1056,16 +1058,16 @@
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <f t="shared" si="2"/>
         <v>45296</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <v>1700</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1079,16 +1081,16 @@
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <f t="shared" si="2"/>
         <v>45297</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>1550</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1102,16 +1104,16 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <f t="shared" si="2"/>
         <v>45298</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <v>1550</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -1125,16 +1127,16 @@
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <f t="shared" si="2"/>
         <v>45299</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="10">
         <v>11350</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1148,7 +1150,7 @@
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <f t="shared" si="2"/>
         <v>45300</v>
       </c>
@@ -1165,7 +1167,7 @@
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <f t="shared" si="2"/>
         <v>45301</v>
       </c>
@@ -1185,7 +1187,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
+      <c r="A1" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
